--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value170.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value170.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.551479255140334</v>
+        <v>0.6341752409934998</v>
       </c>
       <c r="B1">
-        <v>1.56603380182418</v>
+        <v>1.485644817352295</v>
       </c>
       <c r="C1">
-        <v>1.643036324775234</v>
+        <v>5.921566009521484</v>
       </c>
       <c r="D1">
-        <v>2.235521812009814</v>
+        <v>2.803008317947388</v>
       </c>
       <c r="E1">
-        <v>2.032068955080443</v>
+        <v>1.86019229888916</v>
       </c>
     </row>
   </sheetData>
